--- a/src/main/resources/DataProvider/programData.xlsx
+++ b/src/main/resources/DataProvider/programData.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadeelSalameh\Desktop\Adek2\src\main\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9523D971-BD94-4F9A-9E8E-315AA92937BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC4AF3-6D8F-4FE8-AAD9-3AEAE15BAA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{932867C7-E534-4D6F-9D2E-E9C883E7FD12}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{932867C7-E534-4D6F-9D2E-E9C883E7FD12}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
-    <sheet name="Interview" sheetId="2" r:id="rId2"/>
-    <sheet name="BankDetails" sheetId="3" r:id="rId3"/>
-    <sheet name="PayElement" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Interview" sheetId="2" r:id="rId3"/>
+    <sheet name="BankDetails" sheetId="3" r:id="rId4"/>
+    <sheet name="PayElement" sheetId="4" r:id="rId5"/>
+    <sheet name="TemplateConfig" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Univerisity English</t>
   </si>
@@ -148,6 +144,18 @@
   </si>
   <si>
     <t>MeetingRoom B</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>PerformanceRuleSet</t>
+  </si>
+  <si>
+    <t>Policy V2 - Jan 2018 - Updated</t>
+  </si>
+  <si>
+    <t>Policy V2-4PT Performance Ruleset - Inside</t>
   </si>
 </sst>
 </file>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40EC6A8-5043-4683-90B2-583F44BDE7AC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,29 +576,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,6 +584,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC32FF1-3AFB-4744-B76F-F6016D7A3DBF}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560F1B27-CF3E-4F8B-818A-2D93E4CB09DF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -660,7 +683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66506B-2619-4C54-8559-58218F8EA5E3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -723,11 +746,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CA49B7-8053-4F33-8547-6404FACE5288}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -763,4 +786,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D2561-890C-4223-BC6B-2AC104A45472}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>